--- a/Signum.Engine.Extensions/Reports/plainExcelTemplate.xlsx
+++ b/Signum.Engine.Extensions/Reports/plainExcelTemplate.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="60" windowWidth="20115" windowHeight="10515"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
